--- a/Projektmanagement/Risikoanalyse_V2.xlsx
+++ b/Projektmanagement/Risikoanalyse_V2.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="102">
   <si>
     <t>&lt;Ihr Logo&gt;</t>
   </si>
@@ -229,9 +229,6 @@
     <t>Risikoanalyse &lt;3D Laserscanner für mobiler Roboter&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">schnellstmögllichst neuer  Termin, </t>
-  </si>
-  <si>
     <t>Material geschützt verräumen und lagern</t>
   </si>
   <si>
@@ -277,9 +274,6 @@
     <t>Kunde ist mit Zwischenprodukt nicht zufrieden</t>
   </si>
   <si>
-    <t>Änderungen nach Möglichkeit tätigen</t>
-  </si>
-  <si>
     <t>Pflichtenheft beiziehen, Während Besprechungen Notizen machen</t>
   </si>
   <si>
@@ -295,9 +289,6 @@
     <t>Kommunikation mit Dozenten, Reserven einplanen</t>
   </si>
   <si>
-    <t>Softwarecodes nicht implementierbar oder Packages ncht nutzbar</t>
-  </si>
-  <si>
     <t>Alternative suchen, selbstständig implementieren</t>
   </si>
   <si>
@@ -319,12 +310,6 @@
     <t>Software/Hardware</t>
   </si>
   <si>
-    <t>Dimension ausloten, Software schlank halten</t>
-  </si>
-  <si>
-    <t>Optimieren, bessere Hardware evaluieren</t>
-  </si>
-  <si>
     <t>Konzeption nicht umsetzbar</t>
   </si>
   <si>
@@ -368,6 +353,24 @@
   </si>
   <si>
     <t>Anpassungen auf Situation</t>
+  </si>
+  <si>
+    <t>eingetroffen</t>
+  </si>
+  <si>
+    <t>Änderungen nach Wunsch/Möglichkeit tätigen</t>
+  </si>
+  <si>
+    <t>Softwarecodes nicht implementierbar oder Packages nicht nutzbar</t>
+  </si>
+  <si>
+    <t>Optimieren, bessere Hardware evaluieren, Alternative mit Laptop</t>
+  </si>
+  <si>
+    <t>schnellstmögllichst neuer  Termin festlegen</t>
+  </si>
+  <si>
+    <t>Dimension ausloten,  Unnütze Speichervorgänge freigeben, Unnötige Dienste ausschalten</t>
   </si>
 </sst>
 </file>
@@ -403,6 +406,7 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -425,6 +429,7 @@
       <i/>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
@@ -465,6 +470,7 @@
       <sz val="10"/>
       <color indexed="12"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1025,7 +1031,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1173,69 +1179,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1276,321 +1219,78 @@
     <xf numFmtId="164" fontId="23" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="19" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="19" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="45">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="34"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="34"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="34"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="34"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="34"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="34"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="34"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="34"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="34"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="34"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="34"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="34"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="34"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="34"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -2021,73 +1721,73 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="71"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="87"/>
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
-      <c r="B8" s="72"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="74"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="90"/>
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="74"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="90"/>
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
-      <c r="B10" s="72"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="74"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="89"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="90"/>
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="74"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="90"/>
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
-      <c r="B12" s="78" t="s">
+      <c r="B12" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="80"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="96"/>
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
-      <c r="B13" s="75"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="77"/>
+      <c r="B13" s="91"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="93"/>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -2512,10 +2212,10 @@
       <c r="D5" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="85" t="s">
+      <c r="E5" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="86"/>
+      <c r="F5" s="102"/>
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -2525,10 +2225,10 @@
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
-      <c r="E6" s="81" t="s">
+      <c r="E6" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="82"/>
+      <c r="F6" s="98"/>
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -2538,10 +2238,10 @@
       </c>
       <c r="C7" s="23"/>
       <c r="D7" s="23"/>
-      <c r="E7" s="87" t="s">
+      <c r="E7" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="82"/>
+      <c r="F7" s="98"/>
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -2549,8 +2249,8 @@
       <c r="B8" s="24"/>
       <c r="C8" s="23"/>
       <c r="D8" s="23"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="82"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="98"/>
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2558,8 +2258,8 @@
       <c r="B9" s="24"/>
       <c r="C9" s="23"/>
       <c r="D9" s="23"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="82"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="98"/>
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -2567,8 +2267,8 @@
       <c r="B10" s="24"/>
       <c r="C10" s="23"/>
       <c r="D10" s="23"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="82"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="98"/>
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7" ht="12.9" thickBot="1" x14ac:dyDescent="0.35">
@@ -2576,8 +2276,8 @@
       <c r="B11" s="25"/>
       <c r="C11" s="26"/>
       <c r="D11" s="26"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="84"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="100"/>
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -2898,9 +2598,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.69140625" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
@@ -2952,11 +2652,11 @@
       <c r="I2" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="100" t="s">
+      <c r="J2" s="79" t="s">
         <v>45</v>
       </c>
       <c r="L2" s="104" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="M2" s="104"/>
     </row>
@@ -2973,34 +2673,34 @@
       <c r="H3" s="40"/>
       <c r="I3" s="40"/>
       <c r="J3" s="40"/>
-      <c r="L3" s="105" t="s">
+      <c r="L3" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="M3" s="105" t="s">
+      <c r="M3" s="83" t="s">
         <v>36</v>
       </c>
       <c r="N3" s="42"/>
     </row>
     <row r="4" spans="1:14" s="38" customFormat="1" ht="13.75" x14ac:dyDescent="0.3">
       <c r="A4" s="30"/>
-      <c r="B4" s="94"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95"/>
-      <c r="L4" s="103">
+      <c r="B4" s="73"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="L4" s="82">
         <v>1</v>
       </c>
-      <c r="M4" s="103" t="s">
+      <c r="M4" s="82" t="s">
         <v>24</v>
       </c>
       <c r="N4" s="42"/>
     </row>
-    <row r="5" spans="1:14" s="48" customFormat="1" ht="37.299999999999997" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" s="48" customFormat="1" ht="24.9" x14ac:dyDescent="0.3">
       <c r="A5" s="30"/>
       <c r="B5" s="43" t="s">
         <v>24</v>
@@ -3021,19 +2721,19 @@
       <c r="G5" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="H5" s="91" t="s">
-        <v>55</v>
+      <c r="H5" s="70" t="s">
+        <v>54</v>
       </c>
       <c r="I5" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="J5" s="101" t="s">
+      <c r="J5" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="L5" s="103">
+      <c r="L5" s="82">
         <v>2</v>
       </c>
-      <c r="M5" s="103" t="s">
+      <c r="M5" s="82" t="s">
         <v>25</v>
       </c>
       <c r="N5" s="49"/>
@@ -3057,7 +2757,7 @@
         <v>2</v>
       </c>
       <c r="G6" s="64" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H6" s="45" t="s">
         <v>49</v>
@@ -3065,13 +2765,13 @@
       <c r="I6" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="101" t="s">
+      <c r="J6" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="L6" s="103">
+      <c r="L6" s="82">
         <v>3</v>
       </c>
-      <c r="M6" s="103" t="s">
+      <c r="M6" s="82" t="s">
         <v>34</v>
       </c>
       <c r="N6" s="49"/>
@@ -3095,21 +2795,21 @@
         <v>2</v>
       </c>
       <c r="G7" s="64" t="s">
-        <v>66</v>
-      </c>
-      <c r="H7" s="91" t="s">
-        <v>68</v>
+        <v>65</v>
+      </c>
+      <c r="H7" s="70" t="s">
+        <v>67</v>
       </c>
       <c r="I7" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="J7" s="102" t="s">
-        <v>67</v>
-      </c>
-      <c r="L7" s="103">
+      <c r="J7" s="81" t="s">
+        <v>66</v>
+      </c>
+      <c r="L7" s="82">
         <v>4</v>
       </c>
-      <c r="M7" s="103" t="s">
+      <c r="M7" s="82" t="s">
         <v>37</v>
       </c>
       <c r="N7" s="49"/>
@@ -3133,19 +2833,19 @@
         <v>3</v>
       </c>
       <c r="G8" s="64" t="s">
-        <v>95</v>
-      </c>
-      <c r="H8" s="91" t="s">
-        <v>96</v>
+        <v>90</v>
+      </c>
+      <c r="H8" s="70" t="s">
+        <v>91</v>
       </c>
       <c r="I8" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="J8" s="108" t="s">
-        <v>97</v>
-      </c>
-      <c r="L8" s="103"/>
-      <c r="M8" s="103" t="s">
+      <c r="J8" s="84" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" s="82"/>
+      <c r="M8" s="82" t="s">
         <v>50</v>
       </c>
       <c r="N8" s="49"/>
@@ -3169,19 +2869,19 @@
         <v>3</v>
       </c>
       <c r="G9" s="67" t="s">
-        <v>63</v>
-      </c>
-      <c r="H9" s="91" t="s">
-        <v>75</v>
+        <v>62</v>
+      </c>
+      <c r="H9" s="70" t="s">
+        <v>73</v>
       </c>
       <c r="I9" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="J9" s="102" t="s">
-        <v>64</v>
-      </c>
-      <c r="L9" s="103"/>
-      <c r="M9" s="103" t="s">
+      <c r="J9" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="L9" s="82"/>
+      <c r="M9" s="82" t="s">
         <v>51</v>
       </c>
       <c r="N9" s="49"/>
@@ -3205,19 +2905,19 @@
         <v>2</v>
       </c>
       <c r="G10" s="64" t="s">
-        <v>92</v>
-      </c>
-      <c r="H10" s="91" t="s">
-        <v>94</v>
+        <v>87</v>
+      </c>
+      <c r="H10" s="70" t="s">
+        <v>89</v>
       </c>
       <c r="I10" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="J10" s="102" t="s">
-        <v>93</v>
-      </c>
-      <c r="L10" s="103"/>
-      <c r="M10" s="103" t="s">
+      <c r="J10" s="81" t="s">
+        <v>88</v>
+      </c>
+      <c r="L10" s="82"/>
+      <c r="M10" s="82" t="s">
         <v>52</v>
       </c>
       <c r="N10" s="49"/>
@@ -3267,15 +2967,15 @@
       <c r="I12" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="J12" s="89" t="s">
-        <v>54</v>
+      <c r="J12" s="69" t="s">
+        <v>100</v>
       </c>
       <c r="K12" s="49"/>
       <c r="L12" s="49"/>
       <c r="M12" s="49"/>
       <c r="N12" s="49"/>
     </row>
-    <row r="13" spans="1:14" s="48" customFormat="1" ht="37.299999999999997" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" s="48" customFormat="1" ht="24.9" x14ac:dyDescent="0.3">
       <c r="A13" s="30"/>
       <c r="B13" s="55" t="s">
         <v>34</v>
@@ -3296,14 +2996,14 @@
       <c r="G13" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="H13" s="93" t="s">
-        <v>61</v>
+      <c r="H13" s="72" t="s">
+        <v>60</v>
       </c>
       <c r="I13" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="J13" s="90" t="s">
-        <v>65</v>
+      <c r="J13" s="69" t="s">
+        <v>64</v>
       </c>
       <c r="K13" s="49"/>
       <c r="L13" s="49"/>
@@ -3329,16 +3029,16 @@
         <v>2</v>
       </c>
       <c r="G14" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" s="70" t="s">
         <v>57</v>
-      </c>
-      <c r="H14" s="91" t="s">
-        <v>58</v>
       </c>
       <c r="I14" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="J14" s="91" t="s">
-        <v>56</v>
+      <c r="J14" s="70" t="s">
+        <v>55</v>
       </c>
       <c r="K14" s="49"/>
       <c r="L14" s="49"/>
@@ -3364,16 +3064,16 @@
         <v>4</v>
       </c>
       <c r="G15" s="64" t="s">
-        <v>81</v>
-      </c>
-      <c r="H15" s="91" t="s">
-        <v>72</v>
+        <v>78</v>
+      </c>
+      <c r="H15" s="70" t="s">
+        <v>70</v>
       </c>
       <c r="I15" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="J15" s="92" t="s">
-        <v>82</v>
+      <c r="J15" s="71" t="s">
+        <v>79</v>
       </c>
       <c r="K15" s="49"/>
       <c r="L15" s="49"/>
@@ -3399,16 +3099,16 @@
         <v>6</v>
       </c>
       <c r="G16" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="H16" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="H16" s="91" t="s">
-        <v>71</v>
-      </c>
-      <c r="I16" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="J16" s="92" t="s">
-        <v>70</v>
+      <c r="I16" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="J16" s="71" t="s">
+        <v>97</v>
       </c>
       <c r="K16" s="49"/>
       <c r="L16" s="49"/>
@@ -3434,16 +3134,16 @@
         <v>6</v>
       </c>
       <c r="G17" s="64" t="s">
-        <v>73</v>
-      </c>
-      <c r="H17" s="91" t="s">
-        <v>74</v>
+        <v>71</v>
+      </c>
+      <c r="H17" s="70" t="s">
+        <v>72</v>
       </c>
       <c r="I17" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="J17" s="92" t="s">
-        <v>82</v>
+      <c r="J17" s="71" t="s">
+        <v>79</v>
       </c>
       <c r="K17" s="49"/>
       <c r="L17" s="49"/>
@@ -3487,16 +3187,16 @@
         <v>6</v>
       </c>
       <c r="G19" s="65" t="s">
-        <v>86</v>
-      </c>
-      <c r="H19" s="93" t="s">
-        <v>87</v>
+        <v>81</v>
+      </c>
+      <c r="H19" s="72" t="s">
+        <v>82</v>
       </c>
       <c r="I19" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="J19" s="106" t="s">
-        <v>88</v>
+      <c r="J19" s="69" t="s">
+        <v>83</v>
       </c>
       <c r="K19" s="54"/>
       <c r="L19" s="49"/>
@@ -3522,16 +3222,16 @@
         <v>3</v>
       </c>
       <c r="G20" s="65" t="s">
-        <v>76</v>
-      </c>
-      <c r="H20" s="93" t="s">
-        <v>78</v>
+        <v>98</v>
+      </c>
+      <c r="H20" s="72" t="s">
+        <v>75</v>
       </c>
       <c r="I20" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="J20" s="106" t="s">
-        <v>77</v>
+      <c r="J20" s="69" t="s">
+        <v>74</v>
       </c>
       <c r="K20" s="54"/>
       <c r="L20" s="49"/>
@@ -3557,22 +3257,22 @@
         <v>2</v>
       </c>
       <c r="G21" s="64" t="s">
-        <v>62</v>
-      </c>
-      <c r="H21" s="91" t="s">
-        <v>59</v>
+        <v>61</v>
+      </c>
+      <c r="H21" s="70" t="s">
+        <v>58</v>
       </c>
       <c r="I21" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="J21" s="107" t="s">
-        <v>60</v>
+      <c r="J21" s="71" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:14" s="48" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="30"/>
       <c r="B22" s="66" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C22" s="56">
         <v>204</v>
@@ -3588,22 +3288,22 @@
         <v>4</v>
       </c>
       <c r="G22" s="65" t="s">
-        <v>91</v>
-      </c>
-      <c r="H22" s="93" t="s">
-        <v>84</v>
+        <v>86</v>
+      </c>
+      <c r="H22" s="72" t="s">
+        <v>101</v>
       </c>
       <c r="I22" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="J22" s="106" t="s">
-        <v>85</v>
+      <c r="J22" s="69" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:14" s="48" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="30"/>
       <c r="B23" s="67" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C23" s="56">
         <v>205</v>
@@ -3619,16 +3319,16 @@
         <v>1</v>
       </c>
       <c r="G23" s="64" t="s">
-        <v>98</v>
-      </c>
-      <c r="H23" s="91" t="s">
-        <v>99</v>
-      </c>
-      <c r="I23" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="J23" s="88" t="s">
-        <v>100</v>
+        <v>93</v>
+      </c>
+      <c r="H23" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="I23" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="J23" s="71" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:14" s="48" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -3645,18 +3345,18 @@
     <row r="25" spans="1:14" s="48" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="30"/>
       <c r="B25" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="C25" s="99">
-        <v>2</v>
+        <v>84</v>
+      </c>
+      <c r="C25" s="78">
+        <v>3</v>
       </c>
       <c r="D25" s="60"/>
       <c r="E25" s="60"/>
-      <c r="F25" s="97" t="s">
-        <v>90</v>
-      </c>
-      <c r="G25" s="98">
-        <v>43036</v>
+      <c r="F25" s="76" t="s">
+        <v>85</v>
+      </c>
+      <c r="G25" s="77">
+        <v>43078</v>
       </c>
       <c r="H25" s="60"/>
       <c r="I25" s="60"/>

--- a/Projektmanagement/Risikoanalyse_V2.xlsx
+++ b/Projektmanagement/Risikoanalyse_V2.xlsx
@@ -16,13 +16,16 @@
     <sheet name="Historie" sheetId="3" r:id="rId2"/>
     <sheet name="Details Risikoanalyse" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Details Risikoanalyse'!$B$1:$M$36</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="112">
   <si>
     <t>&lt;Ihr Logo&gt;</t>
   </si>
@@ -226,9 +229,6 @@
     <t>Hardware</t>
   </si>
   <si>
-    <t>Risikoanalyse &lt;3D Laserscanner für mobiler Roboter&gt;</t>
-  </si>
-  <si>
     <t>Material geschützt verräumen und lagern</t>
   </si>
   <si>
@@ -352,9 +352,6 @@
     <t>Schnittstellen beachten</t>
   </si>
   <si>
-    <t>Anpassungen auf Situation</t>
-  </si>
-  <si>
     <t>eingetroffen</t>
   </si>
   <si>
@@ -371,6 +368,42 @@
   </si>
   <si>
     <t>Dimension ausloten,  Unnütze Speichervorgänge freigeben, Unnötige Dienste ausschalten</t>
+  </si>
+  <si>
+    <t>Anpassungen nach Situation, Besprechung mit Dozent</t>
+  </si>
+  <si>
+    <t>Risikoanalyse: 3D Laserscanner für mobiler Roboter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Software </t>
+  </si>
+  <si>
+    <t>Hardware mit Software nicht kombinierbar</t>
+  </si>
+  <si>
+    <t>simple Ideen vorziehen, Recherche betreiben, Alternative Implementerung machen</t>
+  </si>
+  <si>
+    <t>Alternative Implementerung</t>
+  </si>
+  <si>
+    <t>C++ / Python Erfahrungen nicht ausreichend</t>
+  </si>
+  <si>
+    <t>Software einfach halten,  keine Packages verwenden die nicht verstanden sind</t>
+  </si>
+  <si>
+    <t>Repetition, Unterstütung holen bei Assistent und Dozent</t>
+  </si>
+  <si>
+    <t>Zeitknappheit</t>
+  </si>
+  <si>
+    <t>Prioritäten setzen, übermässige Arbeitsblöcke vereinfachen</t>
+  </si>
+  <si>
+    <t>ständige Projektplanung, Prioritäten setzen</t>
   </si>
 </sst>
 </file>
@@ -571,7 +604,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -1011,16 +1044,23 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1031,7 +1071,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1207,23 +1247,14 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="23" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="19" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1282,8 +1313,56 @@
     <xf numFmtId="0" fontId="16" fillId="3" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="5" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="5" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1721,73 +1800,73 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
-      <c r="B7" s="85" t="s">
+      <c r="B7" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="87"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="84"/>
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="90"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="87"/>
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
-      <c r="B9" s="88" t="s">
+      <c r="B9" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="89"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="90"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="87"/>
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
-      <c r="B10" s="88"/>
-      <c r="C10" s="89"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="90"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="87"/>
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
-      <c r="B11" s="88" t="s">
+      <c r="B11" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="89"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="90"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="87"/>
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
-      <c r="B12" s="94" t="s">
+      <c r="B12" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="96"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="93"/>
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
-      <c r="B13" s="91"/>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="93"/>
+      <c r="B13" s="88"/>
+      <c r="C13" s="89"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="90"/>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -2212,10 +2291,10 @@
       <c r="D5" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="101" t="s">
+      <c r="E5" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="102"/>
+      <c r="F5" s="99"/>
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -2225,10 +2304,10 @@
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
-      <c r="E6" s="97" t="s">
+      <c r="E6" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="98"/>
+      <c r="F6" s="95"/>
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -2238,10 +2317,10 @@
       </c>
       <c r="C7" s="23"/>
       <c r="D7" s="23"/>
-      <c r="E7" s="103" t="s">
+      <c r="E7" s="100" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="98"/>
+      <c r="F7" s="95"/>
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -2249,8 +2328,8 @@
       <c r="B8" s="24"/>
       <c r="C8" s="23"/>
       <c r="D8" s="23"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="98"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="95"/>
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2258,8 +2337,8 @@
       <c r="B9" s="24"/>
       <c r="C9" s="23"/>
       <c r="D9" s="23"/>
-      <c r="E9" s="97"/>
-      <c r="F9" s="98"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="95"/>
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -2267,8 +2346,8 @@
       <c r="B10" s="24"/>
       <c r="C10" s="23"/>
       <c r="D10" s="23"/>
-      <c r="E10" s="97"/>
-      <c r="F10" s="98"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="95"/>
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7" ht="12.9" thickBot="1" x14ac:dyDescent="0.35">
@@ -2276,8 +2355,8 @@
       <c r="B11" s="25"/>
       <c r="C11" s="26"/>
       <c r="D11" s="26"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="100"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="97"/>
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -2596,11 +2675,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:N47"/>
+  <dimension ref="A1:N58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.69140625" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
@@ -2610,23 +2689,23 @@
     <col min="3" max="3" width="6.3828125" style="32" customWidth="1"/>
     <col min="4" max="5" width="5.15234375" style="32" customWidth="1"/>
     <col min="6" max="6" width="11.84375" style="32" customWidth="1"/>
-    <col min="7" max="7" width="36.53515625" style="32" customWidth="1"/>
+    <col min="7" max="7" width="30.15234375" style="32" customWidth="1"/>
     <col min="8" max="8" width="33.84375" style="33" customWidth="1"/>
-    <col min="9" max="9" width="28.4609375" style="33" customWidth="1"/>
+    <col min="9" max="9" width="15.61328125" style="33" customWidth="1"/>
     <col min="10" max="10" width="38.4609375" style="33" customWidth="1"/>
-    <col min="11" max="11" width="3" style="33" customWidth="1"/>
+    <col min="11" max="11" width="1.53515625" style="33" customWidth="1"/>
     <col min="12" max="14" width="12.69140625" style="33" customWidth="1"/>
     <col min="15" max="15" width="15.84375" style="33" customWidth="1"/>
     <col min="16" max="16384" width="12.69140625" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="30"/>
       <c r="B1" s="31" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="38" customFormat="1" ht="25.3" thickBot="1" x14ac:dyDescent="0.35">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="38" customFormat="1" ht="25.3" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="34"/>
       <c r="B2" s="35" t="s">
         <v>22</v>
@@ -2652,15 +2731,11 @@
       <c r="I2" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="79" t="s">
+      <c r="J2" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="104" t="s">
-        <v>77</v>
-      </c>
-      <c r="M2" s="104"/>
-    </row>
-    <row r="3" spans="1:14" s="38" customFormat="1" ht="13.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:11" s="38" customFormat="1" ht="13.75" x14ac:dyDescent="0.3">
       <c r="A3" s="30"/>
       <c r="B3" s="39" t="s">
         <v>30</v>
@@ -2672,16 +2747,10 @@
       <c r="G3" s="40"/>
       <c r="H3" s="40"/>
       <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="L3" s="83" t="s">
-        <v>35</v>
-      </c>
-      <c r="M3" s="83" t="s">
-        <v>36</v>
-      </c>
-      <c r="N3" s="42"/>
-    </row>
-    <row r="4" spans="1:14" s="38" customFormat="1" ht="13.75" x14ac:dyDescent="0.3">
+      <c r="J3" s="108"/>
+      <c r="K3" s="42"/>
+    </row>
+    <row r="4" spans="1:11" s="38" customFormat="1" ht="13.75" x14ac:dyDescent="0.3">
       <c r="A4" s="30"/>
       <c r="B4" s="73"/>
       <c r="C4" s="74"/>
@@ -2691,16 +2760,10 @@
       <c r="G4" s="74"/>
       <c r="H4" s="74"/>
       <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="L4" s="82">
-        <v>1</v>
-      </c>
-      <c r="M4" s="82" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4" s="42"/>
-    </row>
-    <row r="5" spans="1:14" s="48" customFormat="1" ht="24.9" x14ac:dyDescent="0.3">
+      <c r="J4" s="109"/>
+      <c r="K4" s="42"/>
+    </row>
+    <row r="5" spans="1:11" s="48" customFormat="1" ht="24.9" x14ac:dyDescent="0.3">
       <c r="A5" s="30"/>
       <c r="B5" s="43" t="s">
         <v>24</v>
@@ -2722,23 +2785,17 @@
         <v>48</v>
       </c>
       <c r="H5" s="70" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I5" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="J5" s="80" t="s">
+      <c r="J5" s="110" t="s">
         <v>47</v>
       </c>
-      <c r="L5" s="82">
-        <v>2</v>
-      </c>
-      <c r="M5" s="82" t="s">
-        <v>25</v>
-      </c>
-      <c r="N5" s="49"/>
-    </row>
-    <row r="6" spans="1:14" s="48" customFormat="1" ht="24.9" x14ac:dyDescent="0.3">
+      <c r="K5" s="49"/>
+    </row>
+    <row r="6" spans="1:11" s="48" customFormat="1" ht="24.9" x14ac:dyDescent="0.3">
       <c r="A6" s="30"/>
       <c r="B6" s="43" t="s">
         <v>24</v>
@@ -2757,7 +2814,7 @@
         <v>2</v>
       </c>
       <c r="G6" s="64" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H6" s="45" t="s">
         <v>49</v>
@@ -2765,18 +2822,12 @@
       <c r="I6" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="80" t="s">
+      <c r="J6" s="110" t="s">
         <v>47</v>
       </c>
-      <c r="L6" s="82">
-        <v>3</v>
-      </c>
-      <c r="M6" s="82" t="s">
-        <v>34</v>
-      </c>
-      <c r="N6" s="49"/>
-    </row>
-    <row r="7" spans="1:14" s="48" customFormat="1" ht="24.9" x14ac:dyDescent="0.3">
+      <c r="K6" s="49"/>
+    </row>
+    <row r="7" spans="1:11" s="48" customFormat="1" ht="24.9" x14ac:dyDescent="0.3">
       <c r="A7" s="30"/>
       <c r="B7" s="43" t="s">
         <v>24</v>
@@ -2795,26 +2846,20 @@
         <v>2</v>
       </c>
       <c r="G7" s="64" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H7" s="70" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I7" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="J7" s="81" t="s">
-        <v>66</v>
-      </c>
-      <c r="L7" s="82">
-        <v>4</v>
-      </c>
-      <c r="M7" s="82" t="s">
-        <v>37</v>
-      </c>
-      <c r="N7" s="49"/>
-    </row>
-    <row r="8" spans="1:14" s="48" customFormat="1" ht="24.9" x14ac:dyDescent="0.3">
+      <c r="J7" s="71" t="s">
+        <v>65</v>
+      </c>
+      <c r="K7" s="49"/>
+    </row>
+    <row r="8" spans="1:11" s="48" customFormat="1" ht="24.9" x14ac:dyDescent="0.3">
       <c r="A8" s="30"/>
       <c r="B8" s="67" t="s">
         <v>50</v>
@@ -2833,24 +2878,20 @@
         <v>3</v>
       </c>
       <c r="G8" s="64" t="s">
+        <v>89</v>
+      </c>
+      <c r="H8" s="70" t="s">
         <v>90</v>
-      </c>
-      <c r="H8" s="70" t="s">
-        <v>91</v>
       </c>
       <c r="I8" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="J8" s="84" t="s">
-        <v>92</v>
-      </c>
-      <c r="L8" s="82"/>
-      <c r="M8" s="82" t="s">
-        <v>50</v>
-      </c>
-      <c r="N8" s="49"/>
-    </row>
-    <row r="9" spans="1:14" s="48" customFormat="1" ht="24.9" x14ac:dyDescent="0.3">
+      <c r="J8" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8" s="49"/>
+    </row>
+    <row r="9" spans="1:11" s="48" customFormat="1" ht="24.9" x14ac:dyDescent="0.3">
       <c r="A9" s="30"/>
       <c r="B9" s="67" t="s">
         <v>25</v>
@@ -2869,24 +2910,20 @@
         <v>3</v>
       </c>
       <c r="G9" s="67" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H9" s="70" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I9" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="J9" s="81" t="s">
-        <v>63</v>
-      </c>
-      <c r="L9" s="82"/>
-      <c r="M9" s="82" t="s">
-        <v>51</v>
-      </c>
-      <c r="N9" s="49"/>
-    </row>
-    <row r="10" spans="1:14" s="48" customFormat="1" ht="24.9" x14ac:dyDescent="0.3">
+      <c r="J9" s="71" t="s">
+        <v>62</v>
+      </c>
+      <c r="K9" s="49"/>
+    </row>
+    <row r="10" spans="1:11" s="48" customFormat="1" ht="24.9" x14ac:dyDescent="0.3">
       <c r="A10" s="30"/>
       <c r="B10" s="67" t="s">
         <v>24</v>
@@ -2905,24 +2942,20 @@
         <v>2</v>
       </c>
       <c r="G10" s="64" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H10" s="70" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I10" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="J10" s="81" t="s">
-        <v>88</v>
-      </c>
-      <c r="L10" s="82"/>
-      <c r="M10" s="82" t="s">
-        <v>52</v>
-      </c>
-      <c r="N10" s="49"/>
-    </row>
-    <row r="11" spans="1:14" s="48" customFormat="1" ht="12.9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J10" s="71" t="s">
+        <v>87</v>
+      </c>
+      <c r="K10" s="49"/>
+    </row>
+    <row r="11" spans="1:11" s="48" customFormat="1" ht="12.9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="30"/>
       <c r="B11" s="50" t="s">
         <v>31</v>
@@ -2936,11 +2969,8 @@
       <c r="I11" s="51"/>
       <c r="J11" s="53"/>
       <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="49"/>
-    </row>
-    <row r="12" spans="1:14" s="48" customFormat="1" ht="24.9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:11" s="48" customFormat="1" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="30"/>
       <c r="B12" s="55" t="s">
         <v>37</v>
@@ -2968,14 +2998,11 @@
         <v>40</v>
       </c>
       <c r="J12" s="69" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K12" s="49"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="49"/>
-    </row>
-    <row r="13" spans="1:14" s="48" customFormat="1" ht="24.9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:11" s="48" customFormat="1" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="30"/>
       <c r="B13" s="55" t="s">
         <v>34</v>
@@ -2997,20 +3024,17 @@
         <v>44</v>
       </c>
       <c r="H13" s="72" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I13" s="47" t="s">
         <v>40</v>
       </c>
       <c r="J13" s="69" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="49"/>
-    </row>
-    <row r="14" spans="1:14" s="48" customFormat="1" ht="37.299999999999997" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:11" s="48" customFormat="1" ht="37.299999999999997" x14ac:dyDescent="0.3">
       <c r="A14" s="30"/>
       <c r="B14" s="43" t="s">
         <v>25</v>
@@ -3029,23 +3053,20 @@
         <v>2</v>
       </c>
       <c r="G14" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" s="70" t="s">
         <v>56</v>
-      </c>
-      <c r="H14" s="70" t="s">
-        <v>57</v>
       </c>
       <c r="I14" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="J14" s="70" t="s">
-        <v>55</v>
+      <c r="J14" s="71" t="s">
+        <v>54</v>
       </c>
       <c r="K14" s="49"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="49"/>
-    </row>
-    <row r="15" spans="1:14" s="48" customFormat="1" ht="24.9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:11" s="48" customFormat="1" ht="24.9" x14ac:dyDescent="0.3">
       <c r="A15" s="30"/>
       <c r="B15" s="67" t="s">
         <v>25</v>
@@ -3064,23 +3085,20 @@
         <v>4</v>
       </c>
       <c r="G15" s="64" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H15" s="70" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I15" s="47" t="s">
         <v>40</v>
       </c>
       <c r="J15" s="71" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K15" s="49"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="49"/>
-    </row>
-    <row r="16" spans="1:14" s="48" customFormat="1" ht="24.9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:11" s="48" customFormat="1" ht="24.9" x14ac:dyDescent="0.3">
       <c r="A16" s="30"/>
       <c r="B16" s="67" t="s">
         <v>34</v>
@@ -3095,25 +3113,22 @@
         <v>3</v>
       </c>
       <c r="F16" s="46">
-        <f t="shared" ref="F16:F23" si="1">D16*E16</f>
+        <f t="shared" ref="F16:F26" si="1">D16*E16</f>
         <v>6</v>
       </c>
       <c r="G16" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="H16" s="70" t="s">
-        <v>69</v>
-      </c>
       <c r="I16" s="64" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J16" s="71" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K16" s="49"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="49"/>
     </row>
     <row r="17" spans="1:14" s="48" customFormat="1" ht="24.9" x14ac:dyDescent="0.3">
       <c r="A17" s="30"/>
@@ -3134,463 +3149,526 @@
         <v>6</v>
       </c>
       <c r="G17" s="64" t="s">
+        <v>70</v>
+      </c>
+      <c r="H17" s="70" t="s">
         <v>71</v>
-      </c>
-      <c r="H17" s="70" t="s">
-        <v>72</v>
       </c>
       <c r="I17" s="47" t="s">
         <v>40</v>
       </c>
       <c r="J17" s="71" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K17" s="49"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="49"/>
-    </row>
-    <row r="18" spans="1:14" s="48" customFormat="1" ht="12.9" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:14" s="48" customFormat="1" ht="24.9" x14ac:dyDescent="0.3">
       <c r="A18" s="30"/>
-      <c r="B18" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="54"/>
+      <c r="B18" s="106" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="102">
+        <v>107</v>
+      </c>
+      <c r="D18" s="103">
+        <v>2</v>
+      </c>
+      <c r="E18" s="103">
+        <v>3</v>
+      </c>
+      <c r="F18" s="104">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="G18" s="101" t="s">
+        <v>109</v>
+      </c>
+      <c r="H18" s="105" t="s">
+        <v>111</v>
+      </c>
+      <c r="I18" s="101" t="s">
+        <v>94</v>
+      </c>
+      <c r="J18" s="107" t="s">
+        <v>110</v>
+      </c>
+      <c r="K18" s="49"/>
       <c r="L18" s="49"/>
       <c r="M18" s="49"/>
       <c r="N18" s="49"/>
     </row>
-    <row r="19" spans="1:14" s="48" customFormat="1" ht="24.9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" s="48" customFormat="1" ht="12.9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="30"/>
-      <c r="B19" s="66" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="56">
-        <v>201</v>
-      </c>
-      <c r="D19" s="57">
-        <v>2</v>
-      </c>
-      <c r="E19" s="57">
-        <v>3</v>
-      </c>
-      <c r="F19" s="46">
-        <f t="shared" ref="F19" si="2">D19*E19</f>
-        <v>6</v>
-      </c>
-      <c r="G19" s="65" t="s">
-        <v>81</v>
-      </c>
-      <c r="H19" s="72" t="s">
-        <v>82</v>
-      </c>
-      <c r="I19" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="J19" s="69" t="s">
-        <v>83</v>
-      </c>
+      <c r="B19" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="53"/>
       <c r="K19" s="54"/>
       <c r="L19" s="49"/>
       <c r="M19" s="49"/>
       <c r="N19" s="49"/>
     </row>
-    <row r="20" spans="1:14" s="38" customFormat="1" ht="24.9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" s="48" customFormat="1" ht="24.9" x14ac:dyDescent="0.3">
       <c r="A20" s="30"/>
       <c r="B20" s="66" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C20" s="56">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D20" s="57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20" s="57">
         <v>3</v>
       </c>
       <c r="F20" s="46">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f t="shared" ref="F20" si="2">D20*E20</f>
+        <v>6</v>
       </c>
       <c r="G20" s="65" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="H20" s="72" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I20" s="47" t="s">
         <v>40</v>
       </c>
       <c r="J20" s="69" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="K20" s="54"/>
       <c r="L20" s="49"/>
       <c r="M20" s="49"/>
       <c r="N20" s="49"/>
     </row>
-    <row r="21" spans="1:14" s="48" customFormat="1" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" s="38" customFormat="1" ht="48.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="30"/>
-      <c r="B21" s="67" t="s">
-        <v>52</v>
+      <c r="B21" s="66" t="s">
+        <v>51</v>
       </c>
       <c r="C21" s="56">
-        <v>203</v>
-      </c>
-      <c r="D21" s="45">
+        <v>202</v>
+      </c>
+      <c r="D21" s="57">
         <v>1</v>
       </c>
-      <c r="E21" s="45">
-        <v>2</v>
+      <c r="E21" s="57">
+        <v>3</v>
       </c>
       <c r="F21" s="46">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="G21" s="64" t="s">
-        <v>61</v>
-      </c>
-      <c r="H21" s="70" t="s">
-        <v>58</v>
+        <v>3</v>
+      </c>
+      <c r="G21" s="65" t="s">
+        <v>96</v>
+      </c>
+      <c r="H21" s="72" t="s">
+        <v>74</v>
       </c>
       <c r="I21" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="J21" s="71" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" s="48" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J21" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="K21" s="54"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="49"/>
+      <c r="N21" s="49"/>
+    </row>
+    <row r="22" spans="1:14" s="48" customFormat="1" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="30"/>
-      <c r="B22" s="66" t="s">
-        <v>80</v>
+      <c r="B22" s="67" t="s">
+        <v>52</v>
       </c>
       <c r="C22" s="56">
-        <v>204</v>
-      </c>
-      <c r="D22" s="57">
-        <v>2</v>
-      </c>
-      <c r="E22" s="57">
+        <v>203</v>
+      </c>
+      <c r="D22" s="45">
+        <v>1</v>
+      </c>
+      <c r="E22" s="45">
         <v>2</v>
       </c>
       <c r="F22" s="46">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="G22" s="65" t="s">
-        <v>86</v>
-      </c>
-      <c r="H22" s="72" t="s">
-        <v>101</v>
+        <v>2</v>
+      </c>
+      <c r="G22" s="64" t="s">
+        <v>60</v>
+      </c>
+      <c r="H22" s="70" t="s">
+        <v>57</v>
       </c>
       <c r="I22" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="J22" s="69" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" s="48" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J22" s="71" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" s="48" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="30"/>
-      <c r="B23" s="67" t="s">
-        <v>80</v>
+      <c r="B23" s="66" t="s">
+        <v>79</v>
       </c>
       <c r="C23" s="56">
-        <v>205</v>
-      </c>
-      <c r="D23" s="45">
-        <v>1</v>
-      </c>
-      <c r="E23" s="45">
-        <v>1</v>
+        <v>204</v>
+      </c>
+      <c r="D23" s="57">
+        <v>2</v>
+      </c>
+      <c r="E23" s="57">
+        <v>2</v>
       </c>
       <c r="F23" s="46">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="G23" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="H23" s="72" t="s">
+        <v>99</v>
+      </c>
+      <c r="I23" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="J23" s="69" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" s="48" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="30"/>
+      <c r="B24" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="56">
+        <v>205</v>
+      </c>
+      <c r="D24" s="45">
+        <v>2</v>
+      </c>
+      <c r="E24" s="45">
+        <v>2</v>
+      </c>
+      <c r="F24" s="46">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G24" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="H24" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="H23" s="70" t="s">
+      <c r="I24" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="I23" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="J23" s="71" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" s="48" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="30"/>
-      <c r="B24" s="60"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="60"/>
-      <c r="I24" s="60"/>
-    </row>
-    <row r="25" spans="1:14" s="48" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J24" s="71" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" s="48" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="30"/>
-      <c r="B25" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="C25" s="78">
+      <c r="B25" s="67" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="44">
+        <v>206</v>
+      </c>
+      <c r="D25" s="45">
+        <v>2</v>
+      </c>
+      <c r="E25" s="45">
         <v>3</v>
       </c>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="76" t="s">
-        <v>85</v>
-      </c>
-      <c r="G25" s="77">
-        <v>43078</v>
-      </c>
-      <c r="H25" s="60"/>
-      <c r="I25" s="60"/>
-    </row>
-    <row r="26" spans="1:14" s="48" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F25" s="46">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="G25" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="H25" s="70" t="s">
+        <v>104</v>
+      </c>
+      <c r="I25" s="64" t="s">
+        <v>40</v>
+      </c>
+      <c r="J25" s="71" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" s="48" customFormat="1" ht="26.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="30"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="60"/>
-      <c r="I26" s="60"/>
-    </row>
-    <row r="27" spans="1:14" s="48" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="111" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="112">
+        <v>207</v>
+      </c>
+      <c r="D26" s="113">
+        <v>2</v>
+      </c>
+      <c r="E26" s="113">
+        <v>2</v>
+      </c>
+      <c r="F26" s="114">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G26" s="115" t="s">
+        <v>106</v>
+      </c>
+      <c r="H26" s="116" t="s">
+        <v>107</v>
+      </c>
+      <c r="I26" s="115" t="s">
+        <v>40</v>
+      </c>
+      <c r="J26" s="117" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="30"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="60"/>
       <c r="H27" s="60"/>
       <c r="I27" s="60"/>
-    </row>
-    <row r="28" spans="1:14" s="48" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J27" s="60"/>
+    </row>
+    <row r="28" spans="1:14" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="30"/>
-      <c r="B28" s="49"/>
-      <c r="C28" s="49"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="60"/>
       <c r="D28" s="60"/>
       <c r="E28" s="60"/>
       <c r="F28" s="60"/>
       <c r="G28" s="60"/>
       <c r="H28" s="60"/>
-      <c r="I28" s="60"/>
-      <c r="J28" s="60"/>
-    </row>
-    <row r="29" spans="1:14" s="48" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I28" s="81" t="s">
+        <v>76</v>
+      </c>
+      <c r="J28" s="81"/>
+    </row>
+    <row r="29" spans="1:14" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="30"/>
-      <c r="B29" s="49"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="61"/>
+      <c r="B29" s="60"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
       <c r="H29" s="60"/>
-      <c r="I29" s="60"/>
-      <c r="J29" s="60"/>
-    </row>
-    <row r="30" spans="1:14" s="48" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I29" s="80" t="s">
+        <v>35</v>
+      </c>
+      <c r="J29" s="80" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="30"/>
-      <c r="B30" s="49"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="61"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="60"/>
       <c r="H30" s="60"/>
-      <c r="I30" s="60"/>
-      <c r="J30" s="60"/>
-    </row>
-    <row r="31" spans="1:14" s="48" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I30" s="79">
+        <v>1</v>
+      </c>
+      <c r="J30" s="79" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="30"/>
-      <c r="B31" s="49"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="61"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="60"/>
+      <c r="G31" s="60"/>
       <c r="H31" s="60"/>
-      <c r="I31" s="60"/>
-      <c r="J31" s="60"/>
-    </row>
-    <row r="32" spans="1:14" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I31" s="79">
+        <v>2</v>
+      </c>
+      <c r="J31" s="79" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="30"/>
-      <c r="B32" s="49"/>
-      <c r="C32" s="49"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="33"/>
-    </row>
-    <row r="33" spans="1:10" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="60"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="60"/>
+      <c r="I32" s="79">
+        <v>3</v>
+      </c>
+      <c r="J32" s="79" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="30"/>
-      <c r="B33" s="49"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
-    </row>
-    <row r="34" spans="1:10" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="60"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="60"/>
+      <c r="I33" s="79"/>
+      <c r="J33" s="79" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="30"/>
-      <c r="B34" s="49"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
-      <c r="J34" s="33"/>
-    </row>
-    <row r="35" spans="1:10" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="60"/>
+      <c r="C34" s="60"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="60"/>
+      <c r="H34" s="60"/>
+      <c r="I34" s="79"/>
+      <c r="J34" s="79" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="30"/>
-      <c r="B35" s="49"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="33"/>
-      <c r="J35" s="33"/>
-    </row>
-    <row r="36" spans="1:10" s="60" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="60"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="60"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="60"/>
+      <c r="I35" s="79"/>
+      <c r="J35" s="79" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="30"/>
-      <c r="B36" s="49"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="33"/>
-      <c r="J36" s="33"/>
-    </row>
-    <row r="37" spans="1:10" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" s="78">
+        <v>3</v>
+      </c>
+      <c r="D36" s="60"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="76" t="s">
+        <v>84</v>
+      </c>
+      <c r="G36" s="77">
+        <v>43078</v>
+      </c>
+      <c r="I36" s="79"/>
+      <c r="J36" s="79" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="30"/>
-      <c r="B37" s="49"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="33"/>
-    </row>
-    <row r="38" spans="1:10" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="60"/>
+      <c r="G37" s="60"/>
+    </row>
+    <row r="38" spans="1:10" s="48" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="30"/>
-      <c r="B38" s="54"/>
+      <c r="B38" s="49"/>
       <c r="C38" s="49"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="33"/>
-      <c r="J38" s="33"/>
-    </row>
-    <row r="39" spans="1:10" s="60" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+      <c r="D38" s="61"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="61"/>
+      <c r="G38" s="61"/>
+    </row>
+    <row r="39" spans="1:10" s="48" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="30"/>
-      <c r="B39" s="63"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="33"/>
-    </row>
-    <row r="40" spans="1:10" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="49"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="60"/>
+      <c r="F39" s="60"/>
+      <c r="G39" s="60"/>
+    </row>
+    <row r="40" spans="1:10" s="48" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="30"/>
-      <c r="B40" s="33"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="33"/>
-      <c r="I40" s="33"/>
-      <c r="J40" s="33"/>
-    </row>
-    <row r="41" spans="1:10" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="49"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="61"/>
+      <c r="E40" s="61"/>
+      <c r="F40" s="61"/>
+      <c r="G40" s="61"/>
+    </row>
+    <row r="41" spans="1:10" s="48" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="30"/>
-      <c r="B41" s="33"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="33"/>
-      <c r="J41" s="33"/>
-    </row>
-    <row r="42" spans="1:10" s="60" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+      <c r="B41" s="49"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="61"/>
+      <c r="E41" s="61"/>
+      <c r="F41" s="61"/>
+      <c r="G41" s="61"/>
+    </row>
+    <row r="42" spans="1:10" s="48" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="30"/>
-      <c r="B42" s="63"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="33"/>
-      <c r="I42" s="33"/>
-      <c r="J42" s="33"/>
-    </row>
-    <row r="43" spans="1:10" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="49"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="61"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="61"/>
+      <c r="G42" s="61"/>
+    </row>
+    <row r="43" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="30"/>
-      <c r="B43" s="33"/>
-      <c r="C43" s="32"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="49"/>
       <c r="D43" s="32"/>
       <c r="E43" s="32"/>
       <c r="F43" s="32"/>
       <c r="G43" s="32"/>
-      <c r="H43" s="33"/>
-      <c r="I43" s="33"/>
-      <c r="J43" s="33"/>
     </row>
     <row r="44" spans="1:10" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="30"/>
-      <c r="B44" s="33"/>
-      <c r="C44" s="32"/>
+      <c r="B44" s="49"/>
+      <c r="C44" s="49"/>
       <c r="D44" s="32"/>
       <c r="E44" s="32"/>
       <c r="F44" s="32"/>
       <c r="G44" s="32"/>
-      <c r="H44" s="33"/>
-      <c r="I44" s="33"/>
-      <c r="J44" s="33"/>
     </row>
     <row r="45" spans="1:10" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="30"/>
-      <c r="B45" s="33"/>
-      <c r="C45" s="32"/>
+      <c r="B45" s="49"/>
+      <c r="C45" s="49"/>
       <c r="D45" s="32"/>
       <c r="E45" s="32"/>
       <c r="F45" s="32"/>
@@ -3601,8 +3679,8 @@
     </row>
     <row r="46" spans="1:10" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="30"/>
-      <c r="B46" s="33"/>
-      <c r="C46" s="32"/>
+      <c r="B46" s="49"/>
+      <c r="C46" s="49"/>
       <c r="D46" s="32"/>
       <c r="E46" s="32"/>
       <c r="F46" s="32"/>
@@ -3611,10 +3689,10 @@
       <c r="I46" s="33"/>
       <c r="J46" s="33"/>
     </row>
-    <row r="47" spans="1:10" s="60" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" s="60" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="30"/>
-      <c r="B47" s="33"/>
-      <c r="C47" s="32"/>
+      <c r="B47" s="49"/>
+      <c r="C47" s="49"/>
       <c r="D47" s="32"/>
       <c r="E47" s="32"/>
       <c r="F47" s="32"/>
@@ -3623,12 +3701,141 @@
       <c r="I47" s="33"/>
       <c r="J47" s="33"/>
     </row>
+    <row r="48" spans="1:10" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="30"/>
+      <c r="B48" s="49"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="33"/>
+      <c r="I48" s="33"/>
+      <c r="J48" s="33"/>
+    </row>
+    <row r="49" spans="1:10" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="30"/>
+      <c r="B49" s="54"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="33"/>
+      <c r="I49" s="33"/>
+      <c r="J49" s="33"/>
+    </row>
+    <row r="50" spans="1:10" s="60" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+      <c r="A50" s="30"/>
+      <c r="B50" s="63"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="33"/>
+      <c r="I50" s="33"/>
+      <c r="J50" s="33"/>
+    </row>
+    <row r="51" spans="1:10" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="30"/>
+      <c r="B51" s="33"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="33"/>
+      <c r="I51" s="33"/>
+      <c r="J51" s="33"/>
+    </row>
+    <row r="52" spans="1:10" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="30"/>
+      <c r="B52" s="33"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="33"/>
+      <c r="I52" s="33"/>
+      <c r="J52" s="33"/>
+    </row>
+    <row r="53" spans="1:10" s="60" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+      <c r="A53" s="30"/>
+      <c r="B53" s="63"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="33"/>
+      <c r="I53" s="33"/>
+      <c r="J53" s="33"/>
+    </row>
+    <row r="54" spans="1:10" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="30"/>
+      <c r="B54" s="33"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="32"/>
+      <c r="H54" s="33"/>
+      <c r="I54" s="33"/>
+      <c r="J54" s="33"/>
+    </row>
+    <row r="55" spans="1:10" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="30"/>
+      <c r="B55" s="33"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="33"/>
+      <c r="I55" s="33"/>
+      <c r="J55" s="33"/>
+    </row>
+    <row r="56" spans="1:10" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="30"/>
+      <c r="B56" s="33"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="32"/>
+      <c r="G56" s="32"/>
+      <c r="H56" s="33"/>
+      <c r="I56" s="33"/>
+      <c r="J56" s="33"/>
+    </row>
+    <row r="57" spans="1:10" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="30"/>
+      <c r="B57" s="33"/>
+      <c r="C57" s="32"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="32"/>
+      <c r="F57" s="32"/>
+      <c r="G57" s="32"/>
+      <c r="H57" s="33"/>
+      <c r="I57" s="33"/>
+      <c r="J57" s="33"/>
+    </row>
+    <row r="58" spans="1:10" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="30"/>
+      <c r="B58" s="33"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="32"/>
+      <c r="G58" s="32"/>
+      <c r="H58" s="33"/>
+      <c r="I58" s="33"/>
+      <c r="J58" s="33"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="L2:M2"/>
-  </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="F12:F17 F19:F23 F5:F10">
+  <conditionalFormatting sqref="F12:F18 F5:F10 F20:F26">
     <cfRule type="cellIs" dxfId="2" priority="22" stopIfTrue="1" operator="between">
       <formula>3</formula>
       <formula>5</formula>
@@ -3643,21 +3850,18 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations xWindow="85" yWindow="491" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" promptTitle="Typen / Klassen definieren" prompt="Geben Sie neue Risikotypen oder Klassen in der Spalte O ein" sqref="G9 B19:B23 B5:B10 B12:B17" xr:uid="{00000000-0002-0000-0200-000001000000}">
-      <formula1>$N$5:$N$21</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" promptTitle="Typen / Klassen definieren" prompt="Geben Sie neue Risikotypen oder Klassen in der Spalte O ein" sqref="G9 B5:B10 B12:B18 B20:B26" xr:uid="{00000000-0002-0000-0200-000001000000}">
+      <formula1>$N$5:$N$22</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" promptTitle="0=kein bis 3=sehr hoch" sqref="D12:E17 D19:E23 D5:E10" xr:uid="{00000000-0002-0000-0200-000000000000}">
-      <formula1>$M$11:$M$12</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" promptTitle="0=kein bis 3=sehr hoch" sqref="D12:E18 D5:E10 D20:E26" xr:uid="{00000000-0002-0000-0200-000000000000}">
+      <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.51" right="0.59" top="0.64" bottom="0.55000000000000004" header="0.39" footer="0.32"/>
-  <pageSetup paperSize="9" scale="82" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="82" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>Seite &amp;P&amp;R&amp;A</oddHeader>
     <oddFooter>&amp;R&amp;"Arial,Fett"&amp;8Vertraulich!</oddFooter>
   </headerFooter>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="11" max="1048575" man="1"/>
-  </colBreaks>
 </worksheet>
 </file>
--- a/Projektmanagement/Risikoanalyse_V2.xlsx
+++ b/Projektmanagement/Risikoanalyse_V2.xlsx
@@ -17,7 +17,7 @@
     <sheet name="Details Risikoanalyse" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'Details Risikoanalyse'!$B$1:$M$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Details Risikoanalyse'!$B$1:$M$37</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="115">
   <si>
     <t>&lt;Ihr Logo&gt;</t>
   </si>
@@ -404,6 +404,15 @@
   </si>
   <si>
     <t>ständige Projektplanung, Prioritäten setzen</t>
+  </si>
+  <si>
+    <t>Materialdefekt</t>
+  </si>
+  <si>
+    <t>Reserven einplanen, Alternative suchen</t>
+  </si>
+  <si>
+    <t>Material geschützt veräumen und lagern</t>
   </si>
 </sst>
 </file>
@@ -1071,7 +1080,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1256,6 +1265,51 @@
     <xf numFmtId="164" fontId="19" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="17" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="5" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="5" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1312,64 +1366,55 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="5" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="5" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="9">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="34"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="34"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1800,73 +1845,73 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="83"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="84"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="99"/>
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
-      <c r="B8" s="85"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="87"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="102"/>
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
-      <c r="B9" s="85" t="s">
+      <c r="B9" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="86"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="87"/>
+      <c r="C9" s="101"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="102"/>
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
-      <c r="B10" s="85"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="87"/>
+      <c r="B10" s="100"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="101"/>
+      <c r="F10" s="102"/>
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
-      <c r="B11" s="85" t="s">
+      <c r="B11" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="86"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="87"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="102"/>
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
-      <c r="B12" s="91" t="s">
+      <c r="B12" s="106" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="92"/>
-      <c r="D12" s="92"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="93"/>
+      <c r="C12" s="107"/>
+      <c r="D12" s="107"/>
+      <c r="E12" s="107"/>
+      <c r="F12" s="108"/>
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
-      <c r="B13" s="88"/>
-      <c r="C13" s="89"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="90"/>
+      <c r="B13" s="103"/>
+      <c r="C13" s="104"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="105"/>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -2291,10 +2336,10 @@
       <c r="D5" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="98" t="s">
+      <c r="E5" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="99"/>
+      <c r="F5" s="114"/>
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -2304,10 +2349,10 @@
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
-      <c r="E6" s="94" t="s">
+      <c r="E6" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="95"/>
+      <c r="F6" s="110"/>
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -2317,10 +2362,10 @@
       </c>
       <c r="C7" s="23"/>
       <c r="D7" s="23"/>
-      <c r="E7" s="100" t="s">
+      <c r="E7" s="115" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="95"/>
+      <c r="F7" s="110"/>
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -2328,8 +2373,8 @@
       <c r="B8" s="24"/>
       <c r="C8" s="23"/>
       <c r="D8" s="23"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="95"/>
+      <c r="E8" s="109"/>
+      <c r="F8" s="110"/>
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2337,8 +2382,8 @@
       <c r="B9" s="24"/>
       <c r="C9" s="23"/>
       <c r="D9" s="23"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="95"/>
+      <c r="E9" s="109"/>
+      <c r="F9" s="110"/>
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -2346,8 +2391,8 @@
       <c r="B10" s="24"/>
       <c r="C10" s="23"/>
       <c r="D10" s="23"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="95"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="110"/>
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7" ht="12.9" thickBot="1" x14ac:dyDescent="0.35">
@@ -2355,8 +2400,8 @@
       <c r="B11" s="25"/>
       <c r="C11" s="26"/>
       <c r="D11" s="26"/>
-      <c r="E11" s="96"/>
-      <c r="F11" s="97"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="112"/>
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -2675,11 +2720,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:N58"/>
+  <dimension ref="A1:N59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.69140625" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
@@ -2747,7 +2792,7 @@
       <c r="G3" s="40"/>
       <c r="H3" s="40"/>
       <c r="I3" s="40"/>
-      <c r="J3" s="108"/>
+      <c r="J3" s="87"/>
       <c r="K3" s="42"/>
     </row>
     <row r="4" spans="1:11" s="38" customFormat="1" ht="13.75" x14ac:dyDescent="0.3">
@@ -2760,7 +2805,7 @@
       <c r="G4" s="74"/>
       <c r="H4" s="74"/>
       <c r="I4" s="74"/>
-      <c r="J4" s="109"/>
+      <c r="J4" s="88"/>
       <c r="K4" s="42"/>
     </row>
     <row r="5" spans="1:11" s="48" customFormat="1" ht="24.9" x14ac:dyDescent="0.3">
@@ -2775,11 +2820,11 @@
         <v>1</v>
       </c>
       <c r="E5" s="45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F5" s="46">
-        <f t="shared" ref="F5:F10" si="0">D5*E5</f>
-        <v>4</v>
+        <f t="shared" ref="F5:F11" si="0">D5*E5</f>
+        <v>3</v>
       </c>
       <c r="G5" s="47" t="s">
         <v>48</v>
@@ -2790,7 +2835,7 @@
       <c r="I5" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="J5" s="110" t="s">
+      <c r="J5" s="89" t="s">
         <v>47</v>
       </c>
       <c r="K5" s="49"/>
@@ -2822,7 +2867,7 @@
       <c r="I6" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="110" t="s">
+      <c r="J6" s="89" t="s">
         <v>47</v>
       </c>
       <c r="K6" s="49"/>
@@ -2859,10 +2904,10 @@
       </c>
       <c r="K7" s="49"/>
     </row>
-    <row r="8" spans="1:11" s="48" customFormat="1" ht="24.9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="30"/>
-      <c r="B8" s="67" t="s">
-        <v>50</v>
+      <c r="B8" s="43" t="s">
+        <v>24</v>
       </c>
       <c r="C8" s="44">
         <v>4</v>
@@ -2870,33 +2915,33 @@
       <c r="D8" s="45">
         <v>1</v>
       </c>
-      <c r="E8" s="45">
+      <c r="E8" s="68">
         <v>3</v>
       </c>
       <c r="F8" s="46">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F8" si="1">D8*E8</f>
         <v>3</v>
       </c>
       <c r="G8" s="64" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="H8" s="70" t="s">
-        <v>90</v>
-      </c>
-      <c r="I8" s="47" t="s">
-        <v>40</v>
+        <v>114</v>
+      </c>
+      <c r="I8" s="64" t="s">
+        <v>94</v>
       </c>
       <c r="J8" s="71" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="K8" s="49"/>
     </row>
     <row r="9" spans="1:11" s="48" customFormat="1" ht="24.9" x14ac:dyDescent="0.3">
       <c r="A9" s="30"/>
       <c r="B9" s="67" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="59">
+        <v>50</v>
+      </c>
+      <c r="C9" s="44">
         <v>5</v>
       </c>
       <c r="D9" s="45">
@@ -2909,106 +2954,106 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G9" s="67" t="s">
-        <v>61</v>
+      <c r="G9" s="64" t="s">
+        <v>89</v>
       </c>
       <c r="H9" s="70" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="I9" s="47" t="s">
         <v>40</v>
       </c>
       <c r="J9" s="71" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="K9" s="49"/>
     </row>
     <row r="10" spans="1:11" s="48" customFormat="1" ht="24.9" x14ac:dyDescent="0.3">
       <c r="A10" s="30"/>
       <c r="B10" s="67" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="44">
+        <v>25</v>
+      </c>
+      <c r="C10" s="59">
         <v>6</v>
       </c>
       <c r="D10" s="45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" s="45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10" s="46">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="G10" s="64" t="s">
-        <v>86</v>
+        <v>3</v>
+      </c>
+      <c r="G10" s="67" t="s">
+        <v>61</v>
       </c>
       <c r="H10" s="70" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="I10" s="47" t="s">
         <v>40</v>
       </c>
       <c r="J10" s="71" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="49"/>
+    </row>
+    <row r="11" spans="1:11" s="48" customFormat="1" ht="24.9" x14ac:dyDescent="0.3">
+      <c r="A11" s="30"/>
+      <c r="B11" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="44">
+        <v>7</v>
+      </c>
+      <c r="D11" s="45">
+        <v>2</v>
+      </c>
+      <c r="E11" s="45">
+        <v>1</v>
+      </c>
+      <c r="F11" s="46">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G11" s="64" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="I11" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="K10" s="49"/>
-    </row>
-    <row r="11" spans="1:11" s="48" customFormat="1" ht="12.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="30"/>
-      <c r="B11" s="50" t="s">
+      <c r="K11" s="49"/>
+    </row>
+    <row r="12" spans="1:11" s="48" customFormat="1" ht="12.9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="30"/>
+      <c r="B12" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="49"/>
-    </row>
-    <row r="12" spans="1:11" s="48" customFormat="1" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="30"/>
-      <c r="B12" s="55" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="56">
-        <v>101</v>
-      </c>
-      <c r="D12" s="57">
-        <v>3</v>
-      </c>
-      <c r="E12" s="57">
-        <v>1</v>
-      </c>
-      <c r="F12" s="46">
-        <f>D12*E12</f>
-        <v>3</v>
-      </c>
-      <c r="G12" s="65" t="s">
-        <v>42</v>
-      </c>
-      <c r="H12" s="57" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="J12" s="69" t="s">
-        <v>98</v>
-      </c>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="53"/>
       <c r="K12" s="49"/>
     </row>
-    <row r="13" spans="1:11" s="48" customFormat="1" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" s="48" customFormat="1" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="30"/>
       <c r="B13" s="55" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C13" s="56">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D13" s="57">
         <v>3</v>
@@ -3020,123 +3065,123 @@
         <f>D13*E13</f>
         <v>3</v>
       </c>
-      <c r="G13" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="H13" s="72" t="s">
-        <v>59</v>
+      <c r="G13" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="57" t="s">
+        <v>43</v>
       </c>
       <c r="I13" s="47" t="s">
         <v>40</v>
       </c>
       <c r="J13" s="69" t="s">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="K13" s="49"/>
     </row>
-    <row r="14" spans="1:11" s="48" customFormat="1" ht="37.299999999999997" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" s="48" customFormat="1" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="30"/>
-      <c r="B14" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="44">
-        <v>103</v>
-      </c>
-      <c r="D14" s="45">
-        <v>2</v>
-      </c>
-      <c r="E14" s="45">
+      <c r="B14" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="56">
+        <v>102</v>
+      </c>
+      <c r="D14" s="57">
+        <v>3</v>
+      </c>
+      <c r="E14" s="57">
         <v>1</v>
       </c>
       <c r="F14" s="46">
         <f>D14*E14</f>
-        <v>2</v>
-      </c>
-      <c r="G14" s="64" t="s">
-        <v>55</v>
-      </c>
-      <c r="H14" s="70" t="s">
-        <v>56</v>
+        <v>3</v>
+      </c>
+      <c r="G14" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="72" t="s">
+        <v>59</v>
       </c>
       <c r="I14" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="J14" s="71" t="s">
-        <v>54</v>
+      <c r="J14" s="69" t="s">
+        <v>63</v>
       </c>
       <c r="K14" s="49"/>
     </row>
-    <row r="15" spans="1:11" s="48" customFormat="1" ht="24.9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" s="48" customFormat="1" ht="37.299999999999997" x14ac:dyDescent="0.3">
       <c r="A15" s="30"/>
-      <c r="B15" s="67" t="s">
+      <c r="B15" s="43" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="44">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D15" s="45">
+        <v>2</v>
+      </c>
+      <c r="E15" s="45">
         <v>1</v>
       </c>
-      <c r="E15" s="45">
-        <v>3</v>
-      </c>
       <c r="F15" s="46">
-        <f>D15+E15</f>
-        <v>4</v>
+        <f>D15*E15</f>
+        <v>2</v>
       </c>
       <c r="G15" s="64" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="H15" s="70" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="I15" s="47" t="s">
         <v>40</v>
       </c>
       <c r="J15" s="71" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="K15" s="49"/>
     </row>
     <row r="16" spans="1:11" s="48" customFormat="1" ht="24.9" x14ac:dyDescent="0.3">
       <c r="A16" s="30"/>
       <c r="B16" s="67" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="59">
-        <v>105</v>
+        <v>25</v>
+      </c>
+      <c r="C16" s="44">
+        <v>104</v>
       </c>
       <c r="D16" s="45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" s="45">
         <v>3</v>
       </c>
       <c r="F16" s="46">
-        <f t="shared" ref="F16:F26" si="1">D16*E16</f>
-        <v>6</v>
+        <f>D16+E16</f>
+        <v>4</v>
       </c>
       <c r="G16" s="64" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="H16" s="70" t="s">
-        <v>68</v>
-      </c>
-      <c r="I16" s="64" t="s">
-        <v>94</v>
+        <v>69</v>
+      </c>
+      <c r="I16" s="47" t="s">
+        <v>40</v>
       </c>
       <c r="J16" s="71" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="K16" s="49"/>
     </row>
     <row r="17" spans="1:14" s="48" customFormat="1" ht="24.9" x14ac:dyDescent="0.3">
       <c r="A17" s="30"/>
       <c r="B17" s="67" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C17" s="59">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D17" s="45">
         <v>2</v>
@@ -3145,312 +3190,332 @@
         <v>3</v>
       </c>
       <c r="F17" s="46">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F17:F27" si="2">D17*E17</f>
         <v>6</v>
       </c>
       <c r="G17" s="64" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H17" s="70" t="s">
-        <v>71</v>
-      </c>
-      <c r="I17" s="47" t="s">
-        <v>40</v>
+        <v>68</v>
+      </c>
+      <c r="I17" s="64" t="s">
+        <v>94</v>
       </c>
       <c r="J17" s="71" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="K17" s="49"/>
     </row>
     <row r="18" spans="1:14" s="48" customFormat="1" ht="24.9" x14ac:dyDescent="0.3">
       <c r="A18" s="30"/>
-      <c r="B18" s="106" t="s">
+      <c r="B18" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="59">
+        <v>106</v>
+      </c>
+      <c r="D18" s="45">
+        <v>2</v>
+      </c>
+      <c r="E18" s="45">
+        <v>3</v>
+      </c>
+      <c r="F18" s="46">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="G18" s="64" t="s">
+        <v>70</v>
+      </c>
+      <c r="H18" s="70" t="s">
+        <v>71</v>
+      </c>
+      <c r="I18" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="J18" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="K18" s="49"/>
+    </row>
+    <row r="19" spans="1:14" s="48" customFormat="1" ht="24.9" x14ac:dyDescent="0.3">
+      <c r="A19" s="30"/>
+      <c r="B19" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="102">
+      <c r="C19" s="82">
         <v>107</v>
       </c>
-      <c r="D18" s="103">
+      <c r="D19" s="83">
         <v>2</v>
       </c>
-      <c r="E18" s="103">
+      <c r="E19" s="83">
         <v>3</v>
       </c>
-      <c r="F18" s="104">
-        <f t="shared" si="1"/>
+      <c r="F19" s="84">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="G18" s="101" t="s">
+      <c r="G19" s="64" t="s">
         <v>109</v>
       </c>
-      <c r="H18" s="105" t="s">
+      <c r="H19" s="70" t="s">
         <v>111</v>
       </c>
-      <c r="I18" s="101" t="s">
+      <c r="I19" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="J18" s="107" t="s">
+      <c r="J19" s="86" t="s">
         <v>110</v>
       </c>
-      <c r="K18" s="49"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="49"/>
-      <c r="N18" s="49"/>
-    </row>
-    <row r="19" spans="1:14" s="48" customFormat="1" ht="12.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="30"/>
-      <c r="B19" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="54"/>
+      <c r="K19" s="49"/>
       <c r="L19" s="49"/>
       <c r="M19" s="49"/>
       <c r="N19" s="49"/>
     </row>
-    <row r="20" spans="1:14" s="48" customFormat="1" ht="24.9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" s="48" customFormat="1" ht="12.9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="30"/>
-      <c r="B20" s="66" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="56">
-        <v>201</v>
-      </c>
-      <c r="D20" s="57">
-        <v>2</v>
-      </c>
-      <c r="E20" s="57">
-        <v>3</v>
-      </c>
-      <c r="F20" s="46">
-        <f t="shared" ref="F20" si="2">D20*E20</f>
-        <v>6</v>
-      </c>
-      <c r="G20" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="H20" s="72" t="s">
-        <v>81</v>
-      </c>
-      <c r="I20" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="J20" s="69" t="s">
-        <v>82</v>
-      </c>
+      <c r="B20" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="53"/>
       <c r="K20" s="54"/>
       <c r="L20" s="49"/>
       <c r="M20" s="49"/>
       <c r="N20" s="49"/>
     </row>
-    <row r="21" spans="1:14" s="38" customFormat="1" ht="48.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" s="48" customFormat="1" ht="24.9" x14ac:dyDescent="0.3">
       <c r="A21" s="30"/>
       <c r="B21" s="66" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C21" s="56">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D21" s="57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21" s="57">
         <v>3</v>
       </c>
       <c r="F21" s="46">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f t="shared" ref="F21" si="3">D21*E21</f>
+        <v>6</v>
       </c>
       <c r="G21" s="65" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="H21" s="72" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="I21" s="47" t="s">
         <v>40</v>
       </c>
       <c r="J21" s="69" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="K21" s="54"/>
       <c r="L21" s="49"/>
       <c r="M21" s="49"/>
       <c r="N21" s="49"/>
     </row>
-    <row r="22" spans="1:14" s="48" customFormat="1" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" s="38" customFormat="1" ht="34.299999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="30"/>
-      <c r="B22" s="67" t="s">
-        <v>52</v>
+      <c r="B22" s="66" t="s">
+        <v>51</v>
       </c>
       <c r="C22" s="56">
-        <v>203</v>
-      </c>
-      <c r="D22" s="45">
+        <v>202</v>
+      </c>
+      <c r="D22" s="57">
         <v>1</v>
       </c>
-      <c r="E22" s="45">
-        <v>2</v>
+      <c r="E22" s="57">
+        <v>3</v>
       </c>
       <c r="F22" s="46">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="G22" s="64" t="s">
-        <v>60</v>
-      </c>
-      <c r="H22" s="70" t="s">
-        <v>57</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G22" s="65" t="s">
+        <v>96</v>
+      </c>
+      <c r="H22" s="72" t="s">
+        <v>74</v>
       </c>
       <c r="I22" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="J22" s="71" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" s="48" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J22" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="K22" s="54"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="49"/>
+      <c r="N22" s="49"/>
+    </row>
+    <row r="23" spans="1:14" s="48" customFormat="1" ht="20.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="30"/>
-      <c r="B23" s="66" t="s">
-        <v>79</v>
+      <c r="B23" s="67" t="s">
+        <v>52</v>
       </c>
       <c r="C23" s="56">
-        <v>204</v>
-      </c>
-      <c r="D23" s="57">
+        <v>203</v>
+      </c>
+      <c r="D23" s="45">
+        <v>1</v>
+      </c>
+      <c r="E23" s="45">
         <v>2</v>
       </c>
-      <c r="E23" s="57">
+      <c r="F23" s="46">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="F23" s="46">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="G23" s="65" t="s">
-        <v>85</v>
-      </c>
-      <c r="H23" s="72" t="s">
-        <v>99</v>
+      <c r="G23" s="64" t="s">
+        <v>60</v>
+      </c>
+      <c r="H23" s="70" t="s">
+        <v>57</v>
       </c>
       <c r="I23" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="J23" s="69" t="s">
+      <c r="J23" s="71" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" s="48" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="30"/>
+      <c r="B24" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="56">
+        <v>204</v>
+      </c>
+      <c r="D24" s="57">
+        <v>2</v>
+      </c>
+      <c r="E24" s="57">
+        <v>2</v>
+      </c>
+      <c r="F24" s="46">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G24" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="H24" s="72" t="s">
+        <v>99</v>
+      </c>
+      <c r="I24" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="J24" s="69" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:14" s="48" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="30"/>
-      <c r="B24" s="67" t="s">
-        <v>79</v>
-      </c>
-      <c r="C24" s="56">
-        <v>205</v>
-      </c>
-      <c r="D24" s="45">
-        <v>2</v>
-      </c>
-      <c r="E24" s="45">
-        <v>2</v>
-      </c>
-      <c r="F24" s="46">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="G24" s="64" t="s">
-        <v>92</v>
-      </c>
-      <c r="H24" s="70" t="s">
-        <v>93</v>
-      </c>
-      <c r="I24" s="64" t="s">
-        <v>94</v>
-      </c>
-      <c r="J24" s="71" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" s="48" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" s="48" customFormat="1" ht="29.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="30"/>
       <c r="B25" s="67" t="s">
-        <v>102</v>
-      </c>
-      <c r="C25" s="44">
-        <v>206</v>
+        <v>79</v>
+      </c>
+      <c r="C25" s="56">
+        <v>205</v>
       </c>
       <c r="D25" s="45">
         <v>2</v>
       </c>
       <c r="E25" s="45">
+        <v>2</v>
+      </c>
+      <c r="F25" s="46">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G25" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="H25" s="70" t="s">
+        <v>93</v>
+      </c>
+      <c r="I25" s="64" t="s">
+        <v>94</v>
+      </c>
+      <c r="J25" s="71" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" s="48" customFormat="1" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="30"/>
+      <c r="B26" s="67" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="44">
+        <v>206</v>
+      </c>
+      <c r="D26" s="45">
+        <v>2</v>
+      </c>
+      <c r="E26" s="45">
         <v>3</v>
       </c>
-      <c r="F25" s="46">
-        <f t="shared" si="1"/>
+      <c r="F26" s="46">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="G25" s="64" t="s">
+      <c r="G26" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="H25" s="70" t="s">
+      <c r="H26" s="70" t="s">
         <v>104</v>
       </c>
-      <c r="I25" s="64" t="s">
+      <c r="I26" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="J25" s="71" t="s">
+      <c r="J26" s="71" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="1:14" s="48" customFormat="1" ht="26.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="30"/>
-      <c r="B26" s="111" t="s">
+    <row r="27" spans="1:14" s="48" customFormat="1" ht="26.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="30"/>
+      <c r="B27" s="90" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="112">
+      <c r="C27" s="91">
         <v>207</v>
       </c>
-      <c r="D26" s="113">
+      <c r="D27" s="92">
         <v>2</v>
       </c>
-      <c r="E26" s="113">
+      <c r="E27" s="92">
         <v>2</v>
       </c>
-      <c r="F26" s="114">
-        <f t="shared" si="1"/>
+      <c r="F27" s="93">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="G26" s="115" t="s">
+      <c r="G27" s="94" t="s">
         <v>106</v>
       </c>
-      <c r="H26" s="116" t="s">
+      <c r="H27" s="95" t="s">
         <v>107</v>
       </c>
-      <c r="I26" s="115" t="s">
+      <c r="I27" s="94" t="s">
         <v>40</v>
       </c>
-      <c r="J26" s="117" t="s">
+      <c r="J27" s="96" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="30"/>
-      <c r="B27" s="60"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="60"/>
-      <c r="H27" s="60"/>
-      <c r="I27" s="60"/>
-      <c r="J27" s="60"/>
     </row>
     <row r="28" spans="1:14" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="30"/>
@@ -3461,10 +3526,8 @@
       <c r="F28" s="60"/>
       <c r="G28" s="60"/>
       <c r="H28" s="60"/>
-      <c r="I28" s="81" t="s">
-        <v>76</v>
-      </c>
-      <c r="J28" s="81"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="60"/>
     </row>
     <row r="29" spans="1:14" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="30"/>
@@ -3475,12 +3538,10 @@
       <c r="F29" s="60"/>
       <c r="G29" s="60"/>
       <c r="H29" s="60"/>
-      <c r="I29" s="80" t="s">
-        <v>35</v>
-      </c>
-      <c r="J29" s="80" t="s">
-        <v>36</v>
-      </c>
+      <c r="I29" s="81" t="s">
+        <v>76</v>
+      </c>
+      <c r="J29" s="81"/>
     </row>
     <row r="30" spans="1:14" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="30"/>
@@ -3491,11 +3552,11 @@
       <c r="F30" s="60"/>
       <c r="G30" s="60"/>
       <c r="H30" s="60"/>
-      <c r="I30" s="79">
-        <v>1</v>
-      </c>
-      <c r="J30" s="79" t="s">
-        <v>24</v>
+      <c r="I30" s="80" t="s">
+        <v>35</v>
+      </c>
+      <c r="J30" s="80" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:14" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3508,10 +3569,10 @@
       <c r="G31" s="60"/>
       <c r="H31" s="60"/>
       <c r="I31" s="79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J31" s="79" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:14" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3524,10 +3585,10 @@
       <c r="G32" s="60"/>
       <c r="H32" s="60"/>
       <c r="I32" s="79">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J32" s="79" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:10" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3539,9 +3600,11 @@
       <c r="F33" s="60"/>
       <c r="G33" s="60"/>
       <c r="H33" s="60"/>
-      <c r="I33" s="79"/>
+      <c r="I33" s="79">
+        <v>3</v>
+      </c>
       <c r="J33" s="79" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:10" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3555,7 +3618,7 @@
       <c r="H34" s="60"/>
       <c r="I34" s="79"/>
       <c r="J34" s="79" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:10" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3569,65 +3632,70 @@
       <c r="H35" s="60"/>
       <c r="I35" s="79"/>
       <c r="J35" s="79" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:10" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="30"/>
-      <c r="B36" s="38" t="s">
-        <v>83</v>
-      </c>
-      <c r="C36" s="78">
-        <v>3</v>
-      </c>
+      <c r="B36" s="60"/>
+      <c r="C36" s="60"/>
       <c r="D36" s="60"/>
       <c r="E36" s="60"/>
-      <c r="F36" s="76" t="s">
-        <v>84</v>
-      </c>
-      <c r="G36" s="77">
-        <v>43078</v>
-      </c>
+      <c r="F36" s="60"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="60"/>
       <c r="I36" s="79"/>
       <c r="J36" s="79" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:10" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="30"/>
-      <c r="B37" s="42"/>
-      <c r="C37" s="42"/>
+      <c r="B37" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="78">
+        <v>3</v>
+      </c>
       <c r="D37" s="60"/>
       <c r="E37" s="60"/>
-      <c r="F37" s="60"/>
-      <c r="G37" s="60"/>
-    </row>
-    <row r="38" spans="1:10" s="48" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F37" s="76" t="s">
+        <v>84</v>
+      </c>
+      <c r="G37" s="77">
+        <v>43086</v>
+      </c>
+      <c r="I37" s="79"/>
+      <c r="J37" s="79" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="30"/>
-      <c r="B38" s="49"/>
-      <c r="C38" s="49"/>
-      <c r="D38" s="61"/>
-      <c r="E38" s="61"/>
-      <c r="F38" s="61"/>
-      <c r="G38" s="61"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="60"/>
+      <c r="F38" s="60"/>
+      <c r="G38" s="60"/>
     </row>
     <row r="39" spans="1:10" s="48" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="30"/>
       <c r="B39" s="49"/>
       <c r="C39" s="49"/>
-      <c r="D39" s="60"/>
-      <c r="E39" s="60"/>
-      <c r="F39" s="60"/>
-      <c r="G39" s="60"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="61"/>
+      <c r="F39" s="61"/>
+      <c r="G39" s="61"/>
     </row>
     <row r="40" spans="1:10" s="48" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="30"/>
       <c r="B40" s="49"/>
       <c r="C40" s="49"/>
-      <c r="D40" s="61"/>
-      <c r="E40" s="61"/>
-      <c r="F40" s="61"/>
-      <c r="G40" s="61"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="60"/>
+      <c r="G40" s="60"/>
     </row>
     <row r="41" spans="1:10" s="48" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="30"/>
@@ -3647,16 +3715,16 @@
       <c r="F42" s="61"/>
       <c r="G42" s="61"/>
     </row>
-    <row r="43" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" s="48" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="30"/>
       <c r="B43" s="49"/>
       <c r="C43" s="49"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="32"/>
-    </row>
-    <row r="44" spans="1:10" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D43" s="61"/>
+      <c r="E43" s="61"/>
+      <c r="F43" s="61"/>
+      <c r="G43" s="61"/>
+    </row>
+    <row r="44" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="30"/>
       <c r="B44" s="49"/>
       <c r="C44" s="49"/>
@@ -3673,9 +3741,6 @@
       <c r="E45" s="32"/>
       <c r="F45" s="32"/>
       <c r="G45" s="32"/>
-      <c r="H45" s="33"/>
-      <c r="I45" s="33"/>
-      <c r="J45" s="33"/>
     </row>
     <row r="46" spans="1:10" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="30"/>
@@ -3689,7 +3754,7 @@
       <c r="I46" s="33"/>
       <c r="J46" s="33"/>
     </row>
-    <row r="47" spans="1:10" s="60" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="30"/>
       <c r="B47" s="49"/>
       <c r="C47" s="49"/>
@@ -3701,7 +3766,7 @@
       <c r="I47" s="33"/>
       <c r="J47" s="33"/>
     </row>
-    <row r="48" spans="1:10" s="60" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" s="60" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="30"/>
       <c r="B48" s="49"/>
       <c r="C48" s="49"/>
@@ -3715,7 +3780,7 @@
     </row>
     <row r="49" spans="1:10" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="30"/>
-      <c r="B49" s="54"/>
+      <c r="B49" s="49"/>
       <c r="C49" s="49"/>
       <c r="D49" s="32"/>
       <c r="E49" s="32"/>
@@ -3725,10 +3790,10 @@
       <c r="I49" s="33"/>
       <c r="J49" s="33"/>
     </row>
-    <row r="50" spans="1:10" s="60" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="30"/>
-      <c r="B50" s="63"/>
-      <c r="C50" s="32"/>
+      <c r="B50" s="54"/>
+      <c r="C50" s="49"/>
       <c r="D50" s="32"/>
       <c r="E50" s="32"/>
       <c r="F50" s="32"/>
@@ -3737,9 +3802,9 @@
       <c r="I50" s="33"/>
       <c r="J50" s="33"/>
     </row>
-    <row r="51" spans="1:10" s="60" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" s="60" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A51" s="30"/>
-      <c r="B51" s="33"/>
+      <c r="B51" s="63"/>
       <c r="C51" s="32"/>
       <c r="D51" s="32"/>
       <c r="E51" s="32"/>
@@ -3761,9 +3826,9 @@
       <c r="I52" s="33"/>
       <c r="J52" s="33"/>
     </row>
-    <row r="53" spans="1:10" s="60" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="30"/>
-      <c r="B53" s="63"/>
+      <c r="B53" s="33"/>
       <c r="C53" s="32"/>
       <c r="D53" s="32"/>
       <c r="E53" s="32"/>
@@ -3773,9 +3838,9 @@
       <c r="I53" s="33"/>
       <c r="J53" s="33"/>
     </row>
-    <row r="54" spans="1:10" s="60" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" s="60" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A54" s="30"/>
-      <c r="B54" s="33"/>
+      <c r="B54" s="63"/>
       <c r="C54" s="32"/>
       <c r="D54" s="32"/>
       <c r="E54" s="32"/>
@@ -3833,27 +3898,53 @@
       <c r="I58" s="33"/>
       <c r="J58" s="33"/>
     </row>
+    <row r="59" spans="1:10" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="30"/>
+      <c r="B59" s="33"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="32"/>
+      <c r="F59" s="32"/>
+      <c r="G59" s="32"/>
+      <c r="H59" s="33"/>
+      <c r="I59" s="33"/>
+      <c r="J59" s="33"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="F12:F18 F5:F10 F20:F26">
-    <cfRule type="cellIs" dxfId="2" priority="22" stopIfTrue="1" operator="between">
+  <conditionalFormatting sqref="F13:F19 F5:F7 F21:F27 F9:F11">
+    <cfRule type="cellIs" dxfId="8" priority="25" stopIfTrue="1" operator="between">
       <formula>3</formula>
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="23" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="7" priority="26" stopIfTrue="1" operator="between">
       <formula>6</formula>
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="24" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="6" priority="27" stopIfTrue="1" operator="between">
+      <formula>0</formula>
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
+    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="between">
+      <formula>3</formula>
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="between">
+      <formula>6</formula>
+      <formula>100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations xWindow="85" yWindow="491" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" promptTitle="Typen / Klassen definieren" prompt="Geben Sie neue Risikotypen oder Klassen in der Spalte O ein" sqref="G9 B5:B10 B12:B18 B20:B26" xr:uid="{00000000-0002-0000-0200-000001000000}">
-      <formula1>$N$5:$N$22</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" promptTitle="Typen / Klassen definieren" prompt="Geben Sie neue Risikotypen oder Klassen in der Spalte O ein" sqref="G10 B21:B27 B13:B19 B5:B11" xr:uid="{00000000-0002-0000-0200-000001000000}">
+      <formula1>$N$5:$N$23</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" promptTitle="0=kein bis 3=sehr hoch" sqref="D12:E18 D5:E10 D20:E26" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" promptTitle="0=kein bis 3=sehr hoch" sqref="D13:E19 D21:E27 D5:E11" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
